--- a/testFile/case/query.xlsx
+++ b/testFile/case/query.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1160" windowWidth="20880" windowHeight="9940"/>
+    <workbookView xWindow="2260" yWindow="580" windowWidth="20880" windowHeight="9940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
+    <sheet name="specialdataSearch" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>method</t>
   </si>
@@ -118,11 +120,69 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>case_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>查询成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>case_name</t>
+    <t>pageNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专场_关联作品</t>
+    <rPh sb="0" eb="1">
+      <t>fnfn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>udb</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wtkk</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专场_推荐作品</t>
+    <rPh sb="0" eb="1">
+      <t>fnfn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rwa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wtkk</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/provider/special/dataSearch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/provider/special/dataSearch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +212,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -199,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +288,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,19 +567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -570,12 +644,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
@@ -622,6 +696,7 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -649,4 +724,236 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1026</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1026</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>